--- a/target/test-classes/testData/Excel_Register_Login_Pythoncode_Practice.xlsx
+++ b/target/test-classes/testData/Excel_Register_Login_Pythoncode_Practice.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geeta\eclipse-workspace-2023\TestNG\Dsalgo_TestNG_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC5C1BA-DC7A-4C49-8437-5030B3A24E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B92DF-D2EF-427F-BB6C-1DBFD32D2513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid_LogIn2" sheetId="1" r:id="rId1"/>
     <sheet name="Valid_LogIn" sheetId="3" r:id="rId2"/>
     <sheet name="Invalid_LogIn" sheetId="5" r:id="rId3"/>
     <sheet name="Register" sheetId="6" r:id="rId4"/>
-    <sheet name="pythonCode" sheetId="2" r:id="rId5"/>
+    <sheet name="pythonCodeold" sheetId="2" r:id="rId5"/>
+    <sheet name="pythonCode" sheetId="7" r:id="rId6"/>
+    <sheet name="ArrayTopicCode" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="EtCkI7veSjd8xyGA1meF/qbOwVoJNm+1VkhWI1ll20o="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="EtCkI7veSjd8xyGA1meF/qbOwVoJNm+1VkhWI1ll20o="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>username</t>
   </si>
@@ -232,16 +234,77 @@
   <si>
     <t>Please fill out this field.</t>
   </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/question/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Practice_Topic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Search the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Consecutive Ones </t>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squares of a Sorted Array  </t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/question/2</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/question/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://dsportalapp.herokuapp.com/question/4</t>
+  </si>
+  <si>
+    <t>print"Hello";</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Arrays in Python</t>
+  </si>
+  <si>
+    <t>Arrays Using List</t>
+  </si>
+  <si>
+    <t>Basic Operations in Lists</t>
+  </si>
+  <si>
+    <t>Applications of Array</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,22 +371,20 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +603,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C7"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1723,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1746,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1696,7 +1757,7 @@
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1707,7 +1768,7 @@
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1718,7 +1779,7 @@
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1753,7 +1814,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,100 +1825,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1873,8 +1934,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1916,8 +1977,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2956,4 +3017,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B900237-B44A-4765-9504-21F7D1EC69A6}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="140.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7B7D2B-12A7-458E-9193-737F567EB08C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>